--- a/planning/Excels/Templates/suspension_template.xlsx
+++ b/planning/Excels/Templates/suspension_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2424069M\Desktop\Academia\UofG\PhD\0. Comammox simulations\A. Code. IbM-2.4.0 (Results.v2)\planning\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2424069M\Documents\GitHub\IbM\planning\Excels\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAADC2E-FD31-424B-980D-A025AFA65A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9C330C-3BEB-4470-B55D-F2EBB5CC1C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32700" yWindow="3570" windowWidth="21600" windowHeight="11205" tabRatio="808" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="808" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="30" r:id="rId1"/>
@@ -29,9 +29,6 @@
     <sheet name="Yield" sheetId="33" r:id="rId14"/>
     <sheet name="ReactionMatrix" sheetId="21" r:id="rId15"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId16"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -3611,6 +3608,15 @@
     <xf numFmtId="11" fontId="0" fillId="11" borderId="77" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="37" fillId="0" borderId="34" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="37" fillId="0" borderId="35" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="37" fillId="0" borderId="36" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3641,45 +3647,54 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="14" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="11" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3688,24 +3703,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="37" fillId="0" borderId="34" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="37" fillId="0" borderId="35" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="14" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="37" fillId="0" borderId="36" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -4297,101 +4294,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Information"/>
-      <sheetName val="Reactions"/>
-      <sheetName val="Settings"/>
-      <sheetName val="Discretization"/>
-      <sheetName val="Parameters"/>
-      <sheetName val="Diffusion"/>
-      <sheetName val="Bacteria"/>
-      <sheetName val="Solver"/>
-      <sheetName val="Influent"/>
-      <sheetName val="Initial condition"/>
-      <sheetName val="ThermoParam"/>
-      <sheetName val="Ks"/>
-      <sheetName val="Ki"/>
-      <sheetName val="Yield-Mu"/>
-      <sheetName val="ReactionMatrix"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>Dynamic dT</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Variable HRT</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Initialisation method</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>kDist</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Inactivation enabled</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>pH solving included</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>pH bulk concentration corrected</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Speciation included</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Structure model</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Structure model type</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Chiel van Amstel" id="{1B02A03D-B105-434D-BEDE-E7ED2DF0F283}" userId="Chiel van Amstel" providerId="None"/>
@@ -4851,7 +4753,7 @@
       <c r="C1" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="260" t="s">
+      <c r="D1" s="265" t="s">
         <v>221</v>
       </c>
       <c r="E1" s="69"/>
@@ -4869,7 +4771,7 @@
       <c r="C2" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="260"/>
+      <c r="D2" s="265"/>
       <c r="E2" s="69"/>
       <c r="F2" s="69"/>
       <c r="G2" s="69"/>
@@ -4885,7 +4787,7 @@
       <c r="C3" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="260"/>
+      <c r="D3" s="265"/>
       <c r="E3" s="69"/>
       <c r="F3" s="69"/>
       <c r="G3" s="69"/>
@@ -4901,7 +4803,7 @@
       <c r="C4" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="260"/>
+      <c r="D4" s="265"/>
       <c r="E4" s="69"/>
       <c r="F4" s="69"/>
       <c r="G4" s="69"/>
@@ -4916,7 +4818,7 @@
       <c r="C5" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="260"/>
+      <c r="D5" s="265"/>
       <c r="E5" s="69"/>
       <c r="F5" s="69"/>
       <c r="G5" s="69"/>
@@ -4932,7 +4834,7 @@
       <c r="C6" s="124" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="260"/>
+      <c r="D6" s="265"/>
       <c r="E6" s="69"/>
       <c r="F6" s="69"/>
       <c r="G6" s="69"/>
@@ -4947,7 +4849,7 @@
       <c r="C7" s="149" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="260"/>
+      <c r="D7" s="265"/>
       <c r="E7" s="69"/>
       <c r="F7" s="142"/>
       <c r="G7" s="142"/>
@@ -5049,7 +4951,7 @@
       <c r="H2" s="161" t="s">
         <v>88</v>
       </c>
-      <c r="I2" s="260" t="s">
+      <c r="I2" s="265" t="s">
         <v>241</v>
       </c>
     </row>
@@ -5078,7 +4980,7 @@
       <c r="H3" s="162" t="s">
         <v>88</v>
       </c>
-      <c r="I3" s="260"/>
+      <c r="I3" s="265"/>
     </row>
     <row r="4" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
@@ -5105,7 +5007,7 @@
       <c r="H4" s="162" t="s">
         <v>88</v>
       </c>
-      <c r="I4" s="260"/>
+      <c r="I4" s="265"/>
     </row>
     <row r="5" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
@@ -5132,7 +5034,7 @@
       <c r="H5" s="162" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="260"/>
+      <c r="I5" s="265"/>
     </row>
     <row r="6" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
@@ -5160,7 +5062,7 @@
       <c r="H6" s="162" t="s">
         <v>88</v>
       </c>
-      <c r="I6" s="260"/>
+      <c r="I6" s="265"/>
     </row>
     <row r="7" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="77" t="s">
@@ -5189,7 +5091,7 @@
       <c r="H7" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="I7" s="260"/>
+      <c r="I7" s="265"/>
     </row>
     <row r="8" spans="1:9" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="147" t="s">
@@ -5216,7 +5118,7 @@
       <c r="H8" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="260"/>
+      <c r="I8" s="265"/>
     </row>
     <row r="9" spans="1:9" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="106" t="s">
@@ -5243,7 +5145,7 @@
       <c r="H9" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="I9" s="260"/>
+      <c r="I9" s="265"/>
     </row>
     <row r="10" spans="1:9" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="156" t="s">
@@ -5270,7 +5172,7 @@
       <c r="H10" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="I10" s="260"/>
+      <c r="I10" s="265"/>
     </row>
     <row r="11" spans="1:9" s="71" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="157" t="s">
@@ -5297,7 +5199,7 @@
       <c r="H11" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="I11" s="260"/>
+      <c r="I11" s="265"/>
     </row>
     <row r="12" spans="1:9" s="71" customFormat="1" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="158" t="s">
@@ -5338,7 +5240,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="72"/>
-      <c r="I13" s="259" t="s">
+      <c r="I13" s="264" t="s">
         <v>242</v>
       </c>
     </row>
@@ -5363,7 +5265,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="72"/>
-      <c r="I14" s="259"/>
+      <c r="I14" s="264"/>
     </row>
     <row r="15" spans="1:9" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="77" t="s">
@@ -5386,7 +5288,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="72"/>
-      <c r="I15" s="259"/>
+      <c r="I15" s="264"/>
     </row>
     <row r="16" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="77" t="s">
@@ -5409,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="71"/>
-      <c r="I16" s="259"/>
+      <c r="I16" s="264"/>
     </row>
     <row r="17" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="77" t="s">
@@ -5432,7 +5334,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="71"/>
-      <c r="I17" s="259"/>
+      <c r="I17" s="264"/>
     </row>
     <row r="18" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="106" t="s">
@@ -5455,7 +5357,7 @@
       </c>
       <c r="F18" s="71"/>
       <c r="H18" s="71"/>
-      <c r="I18" s="259"/>
+      <c r="I18" s="264"/>
     </row>
     <row r="19" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="147" t="s">
@@ -5479,7 +5381,7 @@
       </c>
       <c r="F19" s="71"/>
       <c r="H19" s="71"/>
-      <c r="I19" s="259"/>
+      <c r="I19" s="264"/>
     </row>
     <row r="20" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="147" t="s">
@@ -5503,7 +5405,7 @@
       </c>
       <c r="F20" s="71"/>
       <c r="H20" s="71"/>
-      <c r="I20" s="259"/>
+      <c r="I20" s="264"/>
     </row>
     <row r="21" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="156" t="s">
@@ -5527,7 +5429,7 @@
       </c>
       <c r="F21" s="71"/>
       <c r="H21" s="71"/>
-      <c r="I21" s="259"/>
+      <c r="I21" s="264"/>
     </row>
     <row r="22" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="157" t="s">
@@ -5550,17 +5452,17 @@
         <v>0</v>
       </c>
       <c r="F22" s="71"/>
-      <c r="I22" s="259"/>
+      <c r="I22" s="264"/>
     </row>
     <row r="23" spans="1:9" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="261" t="s">
+      <c r="A23" s="266" t="s">
         <v>228</v>
       </c>
-      <c r="B23" s="262"/>
-      <c r="C23" s="262"/>
-      <c r="D23" s="262"/>
-      <c r="E23" s="262"/>
-      <c r="F23" s="263"/>
+      <c r="B23" s="267"/>
+      <c r="C23" s="267"/>
+      <c r="D23" s="267"/>
+      <c r="E23" s="267"/>
+      <c r="F23" s="268"/>
     </row>
     <row r="24" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="76" t="s">
@@ -5581,7 +5483,7 @@
       <c r="F24" s="171" t="s">
         <v>93</v>
       </c>
-      <c r="I24" s="259" t="s">
+      <c r="I24" s="264" t="s">
         <v>243</v>
       </c>
     </row>
@@ -5604,7 +5506,7 @@
       <c r="F25" s="171" t="s">
         <v>93</v>
       </c>
-      <c r="I25" s="259"/>
+      <c r="I25" s="264"/>
     </row>
     <row r="26" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="77" t="s">
@@ -5625,7 +5527,7 @@
       <c r="F26" s="171" t="s">
         <v>93</v>
       </c>
-      <c r="I26" s="259"/>
+      <c r="I26" s="264"/>
     </row>
     <row r="27" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="77" t="s">
@@ -5646,7 +5548,7 @@
       <c r="F27" s="171" t="s">
         <v>93</v>
       </c>
-      <c r="I27" s="259"/>
+      <c r="I27" s="264"/>
     </row>
     <row r="28" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="77" t="s">
@@ -5667,7 +5569,7 @@
       <c r="F28" s="171" t="s">
         <v>93</v>
       </c>
-      <c r="I28" s="259"/>
+      <c r="I28" s="264"/>
     </row>
     <row r="29" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="106" t="s">
@@ -5688,7 +5590,7 @@
       <c r="F29" s="184" t="s">
         <v>93</v>
       </c>
-      <c r="I29" s="259"/>
+      <c r="I29" s="264"/>
     </row>
     <row r="30" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="147" t="s">
@@ -5709,7 +5611,7 @@
       <c r="F30" s="188" t="s">
         <v>93</v>
       </c>
-      <c r="I30" s="259"/>
+      <c r="I30" s="264"/>
     </row>
     <row r="31" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="147" t="s">
@@ -5730,7 +5632,7 @@
       <c r="F31" s="186" t="s">
         <v>93</v>
       </c>
-      <c r="I31" s="259"/>
+      <c r="I31" s="264"/>
     </row>
     <row r="32" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="156" t="s">
@@ -5751,7 +5653,7 @@
       <c r="F32" s="182" t="s">
         <v>93</v>
       </c>
-      <c r="I32" s="259"/>
+      <c r="I32" s="264"/>
     </row>
     <row r="33" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="157" t="s">
@@ -5772,7 +5674,7 @@
       <c r="F33" s="171" t="s">
         <v>93</v>
       </c>
-      <c r="I33" s="259"/>
+      <c r="I33" s="264"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5832,7 +5734,7 @@
       <c r="E1" s="152" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="251" t="s">
+      <c r="F1" s="269" t="s">
         <v>239</v>
       </c>
     </row>
@@ -5853,7 +5755,7 @@
         <f>(0.1/32)/1000</f>
         <v>3.1250000000000001E-6</v>
       </c>
-      <c r="F2" s="251"/>
+      <c r="F2" s="269"/>
     </row>
     <row r="3" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
@@ -5872,7 +5774,7 @@
         <f t="shared" ref="E3:E6" si="0">(0.1/32)/1000</f>
         <v>3.1250000000000001E-6</v>
       </c>
-      <c r="F3" s="251"/>
+      <c r="F3" s="269"/>
     </row>
     <row r="4" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
@@ -5890,7 +5792,7 @@
       <c r="E4" s="153">
         <v>0</v>
       </c>
-      <c r="F4" s="251"/>
+      <c r="F4" s="269"/>
     </row>
     <row r="5" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
@@ -5909,7 +5811,7 @@
         <f t="shared" si="0"/>
         <v>3.1250000000000001E-6</v>
       </c>
-      <c r="F5" s="251"/>
+      <c r="F5" s="269"/>
     </row>
     <row r="6" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
@@ -5928,7 +5830,7 @@
         <f t="shared" si="0"/>
         <v>3.1250000000000001E-6</v>
       </c>
-      <c r="F6" s="251"/>
+      <c r="F6" s="269"/>
     </row>
     <row r="7" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="89" t="s">
@@ -5946,7 +5848,7 @@
       <c r="E7" s="153">
         <v>0</v>
       </c>
-      <c r="F7" s="251"/>
+      <c r="F7" s="269"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5995,7 +5897,7 @@
       <c r="D1" s="152" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="251" t="s">
+      <c r="E1" s="269" t="s">
         <v>238</v>
       </c>
     </row>
@@ -6012,7 +5914,7 @@
       <c r="D2" s="153">
         <v>0</v>
       </c>
-      <c r="E2" s="251"/>
+      <c r="E2" s="269"/>
     </row>
     <row r="3" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
@@ -6027,7 +5929,7 @@
       <c r="D3" s="153">
         <v>0</v>
       </c>
-      <c r="E3" s="251"/>
+      <c r="E3" s="269"/>
     </row>
     <row r="4" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
@@ -6043,7 +5945,7 @@
         <f>(0.1/32)/1000</f>
         <v>3.1250000000000001E-6</v>
       </c>
-      <c r="E4" s="251"/>
+      <c r="E4" s="269"/>
     </row>
     <row r="5" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
@@ -6058,7 +5960,7 @@
       <c r="D5" s="153">
         <v>0</v>
       </c>
-      <c r="E5" s="251"/>
+      <c r="E5" s="269"/>
     </row>
     <row r="6" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
@@ -6073,7 +5975,7 @@
       <c r="D6" s="153">
         <v>0</v>
       </c>
-      <c r="E6" s="251"/>
+      <c r="E6" s="269"/>
     </row>
     <row r="7" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="89" t="s">
@@ -6088,7 +5990,7 @@
       <c r="D7" s="153">
         <v>0</v>
       </c>
-      <c r="E7" s="251"/>
+      <c r="E7" s="269"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6157,7 +6059,7 @@
       <c r="E2" s="239">
         <v>0.01</v>
       </c>
-      <c r="F2" s="259" t="s">
+      <c r="F2" s="264" t="s">
         <v>264</v>
       </c>
     </row>
@@ -6177,7 +6079,7 @@
       <c r="E3" s="240">
         <v>0.01</v>
       </c>
-      <c r="F3" s="259"/>
+      <c r="F3" s="264"/>
     </row>
     <row r="4" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
@@ -6195,7 +6097,7 @@
       <c r="E4" s="240">
         <v>0.01</v>
       </c>
-      <c r="F4" s="259"/>
+      <c r="F4" s="264"/>
     </row>
     <row r="5" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
@@ -6213,7 +6115,7 @@
       <c r="E5" s="240">
         <v>0.01</v>
       </c>
-      <c r="F5" s="259"/>
+      <c r="F5" s="264"/>
     </row>
     <row r="6" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
@@ -6231,7 +6133,7 @@
       <c r="E6" s="240">
         <v>0.01</v>
       </c>
-      <c r="F6" s="259"/>
+      <c r="F6" s="264"/>
     </row>
     <row r="7" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="89" t="s">
@@ -6249,7 +6151,7 @@
       <c r="E7" s="240">
         <v>0.01</v>
       </c>
-      <c r="F7" s="259"/>
+      <c r="F7" s="264"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6286,36 +6188,36 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="69"/>
-      <c r="B1" s="266" t="s">
+      <c r="B1" s="272" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="264"/>
-      <c r="D1" s="265"/>
-      <c r="E1" s="266" t="s">
+      <c r="C1" s="270"/>
+      <c r="D1" s="271"/>
+      <c r="E1" s="272" t="s">
         <v>265</v>
       </c>
-      <c r="F1" s="264"/>
-      <c r="G1" s="265"/>
-      <c r="H1" s="264" t="s">
+      <c r="F1" s="270"/>
+      <c r="G1" s="271"/>
+      <c r="H1" s="270" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="264"/>
-      <c r="J1" s="265"/>
-      <c r="K1" s="264" t="s">
+      <c r="I1" s="270"/>
+      <c r="J1" s="271"/>
+      <c r="K1" s="270" t="s">
         <v>111</v>
       </c>
-      <c r="L1" s="264"/>
-      <c r="M1" s="265"/>
-      <c r="N1" s="264" t="s">
+      <c r="L1" s="270"/>
+      <c r="M1" s="271"/>
+      <c r="N1" s="270" t="s">
         <v>112</v>
       </c>
-      <c r="O1" s="264"/>
-      <c r="P1" s="265"/>
-      <c r="Q1" s="264" t="s">
+      <c r="O1" s="270"/>
+      <c r="P1" s="271"/>
+      <c r="Q1" s="270" t="s">
         <v>281</v>
       </c>
-      <c r="R1" s="264"/>
-      <c r="S1" s="265"/>
+      <c r="R1" s="270"/>
+      <c r="S1" s="271"/>
     </row>
     <row r="2" spans="1:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69"/>
@@ -7314,30 +7216,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:40" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="S2" s="241" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="241"/>
-      <c r="U2" s="241"/>
-      <c r="V2" s="241"/>
-      <c r="W2" s="241" t="s">
+      <c r="S2" s="244" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="244"/>
+      <c r="U2" s="244"/>
+      <c r="V2" s="244"/>
+      <c r="W2" s="244" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="241"/>
-      <c r="Y2" s="241"/>
-      <c r="Z2" s="241"/>
-      <c r="AA2" s="241" t="s">
+      <c r="X2" s="244"/>
+      <c r="Y2" s="244"/>
+      <c r="Z2" s="244"/>
+      <c r="AA2" s="244" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="241"/>
-      <c r="AC2" s="241"/>
-      <c r="AD2" s="241"/>
-      <c r="AE2" s="241" t="s">
+      <c r="AB2" s="244"/>
+      <c r="AC2" s="244"/>
+      <c r="AD2" s="244"/>
+      <c r="AE2" s="244" t="s">
         <v>3</v>
       </c>
-      <c r="AF2" s="241"/>
-      <c r="AG2" s="241"/>
-      <c r="AH2" s="241"/>
+      <c r="AF2" s="244"/>
+      <c r="AG2" s="244"/>
+      <c r="AH2" s="244"/>
       <c r="AK2" s="3" t="s">
         <v>4</v>
       </c>
@@ -8790,10 +8692,10 @@
         <f>1/F17</f>
         <v>3.4893748785390075E-2</v>
       </c>
-      <c r="J17" s="242" t="s">
+      <c r="J17" s="245" t="s">
         <v>54</v>
       </c>
-      <c r="K17" s="245" t="s">
+      <c r="K17" s="248" t="s">
         <v>55</v>
       </c>
       <c r="R17" s="43" t="s">
@@ -8893,8 +8795,8 @@
         <f t="shared" ref="G18:G19" si="9">1/F18</f>
         <v>2.1521507799447302E-2</v>
       </c>
-      <c r="J18" s="243"/>
-      <c r="K18" s="246"/>
+      <c r="J18" s="246"/>
+      <c r="K18" s="249"/>
       <c r="R18" s="46" t="s">
         <v>57</v>
       </c>
@@ -8992,8 +8894,8 @@
         <f t="shared" si="9"/>
         <v>5.6574173051404053E-2</v>
       </c>
-      <c r="J19" s="243"/>
-      <c r="K19" s="246"/>
+      <c r="J19" s="246"/>
+      <c r="K19" s="249"/>
       <c r="R19" s="46" t="s">
         <v>59</v>
       </c>
@@ -9073,8 +8975,8 @@
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
       <c r="F20" s="36"/>
-      <c r="J20" s="243"/>
-      <c r="K20" s="246"/>
+      <c r="J20" s="246"/>
+      <c r="K20" s="249"/>
       <c r="R20" s="46" t="s">
         <v>60</v>
       </c>
@@ -9155,8 +9057,8 @@
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
       <c r="G21" s="59"/>
-      <c r="J21" s="243"/>
-      <c r="K21" s="246"/>
+      <c r="J21" s="246"/>
+      <c r="K21" s="249"/>
       <c r="R21" s="46" t="s">
         <v>61</v>
       </c>
@@ -9237,8 +9139,8 @@
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
       <c r="G22" s="59"/>
-      <c r="J22" s="243"/>
-      <c r="K22" s="246"/>
+      <c r="J22" s="246"/>
+      <c r="K22" s="249"/>
       <c r="R22" s="46" t="s">
         <v>62</v>
       </c>
@@ -9319,8 +9221,8 @@
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
       <c r="G23" s="59"/>
-      <c r="J23" s="243"/>
-      <c r="K23" s="246"/>
+      <c r="J23" s="246"/>
+      <c r="K23" s="249"/>
       <c r="R23" s="48" t="s">
         <v>23</v>
       </c>
@@ -9401,8 +9303,8 @@
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
       <c r="G24" s="59"/>
-      <c r="J24" s="243"/>
-      <c r="K24" s="246"/>
+      <c r="J24" s="246"/>
+      <c r="K24" s="249"/>
       <c r="V24" s="51" t="s">
         <v>63</v>
       </c>
@@ -9423,8 +9325,8 @@
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
       <c r="G25" s="59"/>
-      <c r="J25" s="243"/>
-      <c r="K25" s="246"/>
+      <c r="J25" s="246"/>
+      <c r="K25" s="249"/>
     </row>
     <row r="26" spans="2:36" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B26" s="58"/>
@@ -9433,14 +9335,14 @@
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
       <c r="G26" s="59"/>
-      <c r="J26" s="243"/>
-      <c r="K26" s="246"/>
-      <c r="N26" s="248" t="s">
+      <c r="J26" s="246"/>
+      <c r="K26" s="249"/>
+      <c r="N26" s="251" t="s">
         <v>64</v>
       </c>
-      <c r="O26" s="249"/>
-      <c r="P26" s="249"/>
-      <c r="Q26" s="250"/>
+      <c r="O26" s="252"/>
+      <c r="P26" s="252"/>
+      <c r="Q26" s="253"/>
       <c r="R26" s="52" t="s">
         <v>65</v>
       </c>
@@ -9516,14 +9418,14 @@
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
       <c r="G27" s="59"/>
-      <c r="J27" s="243"/>
-      <c r="K27" s="246"/>
-      <c r="N27" s="248" t="s">
+      <c r="J27" s="246"/>
+      <c r="K27" s="249"/>
+      <c r="N27" s="251" t="s">
         <v>66</v>
       </c>
-      <c r="O27" s="249"/>
-      <c r="P27" s="249"/>
-      <c r="Q27" s="250"/>
+      <c r="O27" s="252"/>
+      <c r="P27" s="252"/>
+      <c r="Q27" s="253"/>
       <c r="R27" s="55" t="s">
         <v>67</v>
       </c>
@@ -9599,8 +9501,8 @@
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
       <c r="G28" s="59"/>
-      <c r="J28" s="243"/>
-      <c r="K28" s="246"/>
+      <c r="J28" s="246"/>
+      <c r="K28" s="249"/>
       <c r="O28" s="27"/>
       <c r="P28" s="27"/>
       <c r="Q28" s="27"/>
@@ -9612,24 +9514,24 @@
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
       <c r="G29" s="59"/>
-      <c r="J29" s="243"/>
-      <c r="K29" s="246"/>
+      <c r="J29" s="246"/>
+      <c r="K29" s="249"/>
     </row>
     <row r="30" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="J30" s="243"/>
-      <c r="K30" s="246"/>
+      <c r="J30" s="246"/>
+      <c r="K30" s="249"/>
     </row>
     <row r="31" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="J31" s="243"/>
-      <c r="K31" s="246"/>
+      <c r="J31" s="246"/>
+      <c r="K31" s="249"/>
     </row>
     <row r="32" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="J32" s="243"/>
-      <c r="K32" s="246"/>
+      <c r="J32" s="246"/>
+      <c r="K32" s="249"/>
     </row>
     <row r="33" spans="10:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J33" s="244"/>
-      <c r="K33" s="247"/>
+      <c r="J33" s="247"/>
+      <c r="K33" s="250"/>
     </row>
     <row r="34" spans="10:26" x14ac:dyDescent="0.3">
       <c r="U34" s="82"/>
@@ -9829,9 +9731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC80DB5-92D9-44E1-984F-05E418326CA4}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9842,115 +9742,115 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="76" t="str">
-        <f>[1]Discretization!A15</f>
+        <f>Discretization!A15</f>
         <v>Dynamic dT</v>
       </c>
-      <c r="B1" s="267" t="b">
+      <c r="B1" s="241" t="b">
         <f>Discretization!B15</f>
         <v>1</v>
       </c>
-      <c r="C1" s="268" t="s">
+      <c r="C1" s="254" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="str">
-        <f>[1]Parameters!A2</f>
+        <f>Parameters!A2</f>
         <v>Variable HRT</v>
       </c>
-      <c r="B2" s="269" t="b">
+      <c r="B2" s="242" t="b">
         <f>Parameters!B2</f>
         <v>0</v>
       </c>
-      <c r="C2" s="270"/>
+      <c r="C2" s="255"/>
     </row>
     <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="str">
-        <f>[1]Bacteria!A6</f>
+        <f>Bacteria!A6</f>
         <v>Initialisation method</v>
       </c>
-      <c r="B3" s="269" t="str">
+      <c r="B3" s="242" t="str">
         <f>Bacteria!B6</f>
         <v>suspension</v>
       </c>
-      <c r="C3" s="270"/>
+      <c r="C3" s="255"/>
     </row>
     <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="str">
-        <f>[1]Bacteria!A12</f>
+        <f>Bacteria!A12</f>
         <v>kDist</v>
       </c>
-      <c r="B4" s="269">
+      <c r="B4" s="242">
         <f>Bacteria!B12</f>
         <v>1.5</v>
       </c>
-      <c r="C4" s="270"/>
+      <c r="C4" s="255"/>
     </row>
     <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="str">
-        <f>[1]Bacteria!A13</f>
+        <f>Bacteria!A13</f>
         <v>Inactivation enabled</v>
       </c>
-      <c r="B5" s="269" t="b">
+      <c r="B5" s="242" t="b">
         <f>Bacteria!B13</f>
         <v>1</v>
       </c>
-      <c r="C5" s="270"/>
+      <c r="C5" s="255"/>
     </row>
     <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="str">
-        <f>[1]Solver!A4</f>
+        <f>Solver!A4</f>
         <v>pH bulk concentration corrected</v>
       </c>
-      <c r="B6" s="269" t="b">
+      <c r="B6" s="242" t="b">
         <f>Solver!B4</f>
         <v>0</v>
       </c>
-      <c r="C6" s="270"/>
+      <c r="C6" s="255"/>
     </row>
     <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="77" t="str">
-        <f>[1]Solver!A2</f>
+        <f>Solver!A2</f>
         <v>pH solving included</v>
       </c>
-      <c r="B7" s="269" t="b">
+      <c r="B7" s="242" t="b">
         <f>Solver!B2</f>
         <v>0</v>
       </c>
-      <c r="C7" s="270"/>
+      <c r="C7" s="255"/>
     </row>
     <row r="8" spans="1:7" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="89" t="str">
-        <f>[1]Solver!A5</f>
+        <f>Solver!A5</f>
         <v>Speciation included</v>
       </c>
-      <c r="B8" s="271" t="b">
+      <c r="B8" s="243" t="b">
         <f>Solver!B5</f>
         <v>0</v>
       </c>
-      <c r="C8" s="270"/>
+      <c r="C8" s="255"/>
     </row>
     <row r="9" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="77" t="str">
-        <f>[1]Solver!A11</f>
+        <f>Solver!A11</f>
         <v>Structure model</v>
       </c>
-      <c r="B9" s="269" t="b">
+      <c r="B9" s="242" t="b">
         <f>Solver!B11</f>
         <v>0</v>
       </c>
-      <c r="C9" s="270"/>
+      <c r="C9" s="255"/>
     </row>
     <row r="10" spans="1:7" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="89" t="str">
-        <f>[1]Solver!A12</f>
+        <f>Solver!A12</f>
         <v>Structure model type</v>
       </c>
-      <c r="B10" s="271" t="str">
+      <c r="B10" s="243" t="str">
         <f>IF(B9=FALSE,"-",Solver!B12)</f>
         <v>-</v>
       </c>
-      <c r="C10" s="272"/>
+      <c r="C10" s="256"/>
     </row>
     <row r="11" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="215"/>
@@ -10008,7 +9908,7 @@
       <c r="D1" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="252" t="s">
+      <c r="E1" s="257" t="s">
         <v>128</v>
       </c>
     </row>
@@ -10025,7 +9925,7 @@
       <c r="D2" s="108" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="252"/>
+      <c r="E2" s="257"/>
     </row>
     <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="77" t="s">
@@ -10041,7 +9941,7 @@
       <c r="D3" s="108" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="252"/>
+      <c r="E3" s="257"/>
     </row>
     <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="77" t="s">
@@ -10057,7 +9957,7 @@
       <c r="D4" s="108" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="252"/>
+      <c r="E4" s="257"/>
     </row>
     <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="77" t="s">
@@ -10072,7 +9972,7 @@
       <c r="D5" s="108" t="s">
         <v>117</v>
       </c>
-      <c r="E5" s="252"/>
+      <c r="E5" s="257"/>
     </row>
     <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="77" t="s">
@@ -10087,7 +9987,7 @@
       <c r="D6" s="108" t="s">
         <v>118</v>
       </c>
-      <c r="E6" s="252"/>
+      <c r="E6" s="257"/>
     </row>
     <row r="7" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="77" t="s">
@@ -10103,7 +10003,7 @@
       <c r="D7" s="108" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="252"/>
+      <c r="E7" s="257"/>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="89" t="s">
@@ -10119,7 +10019,7 @@
       <c r="D8" s="109" t="s">
         <v>120</v>
       </c>
-      <c r="E8" s="253"/>
+      <c r="E8" s="258"/>
     </row>
     <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="76" t="s">
@@ -10134,7 +10034,7 @@
       <c r="D9" s="110" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="254" t="s">
+      <c r="E9" s="259" t="s">
         <v>129</v>
       </c>
     </row>
@@ -10151,7 +10051,7 @@
       <c r="D10" s="108" t="s">
         <v>140</v>
       </c>
-      <c r="E10" s="255"/>
+      <c r="E10" s="260"/>
     </row>
     <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="77" t="s">
@@ -10167,7 +10067,7 @@
       <c r="D11" s="108" t="s">
         <v>142</v>
       </c>
-      <c r="E11" s="255"/>
+      <c r="E11" s="260"/>
     </row>
     <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="77" t="s">
@@ -10182,7 +10082,7 @@
       <c r="D12" s="108" t="s">
         <v>146</v>
       </c>
-      <c r="E12" s="255"/>
+      <c r="E12" s="260"/>
     </row>
     <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="77" t="s">
@@ -10197,7 +10097,7 @@
       <c r="D13" s="108" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="255"/>
+      <c r="E13" s="260"/>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="89" t="s">
@@ -10213,7 +10113,7 @@
       <c r="D14" s="109" t="s">
         <v>127</v>
       </c>
-      <c r="E14" s="256"/>
+      <c r="E14" s="261"/>
     </row>
     <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="105" t="s">
@@ -10228,7 +10128,7 @@
       <c r="D15" s="111" t="s">
         <v>150</v>
       </c>
-      <c r="E15" s="254" t="s">
+      <c r="E15" s="259" t="s">
         <v>164</v>
       </c>
     </row>
@@ -10245,7 +10145,7 @@
       <c r="D16" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="E16" s="255"/>
+      <c r="E16" s="260"/>
     </row>
     <row r="17" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="77" t="s">
@@ -10261,7 +10161,7 @@
       <c r="D17" s="112" t="s">
         <v>138</v>
       </c>
-      <c r="E17" s="255"/>
+      <c r="E17" s="260"/>
     </row>
     <row r="18" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="77" t="s">
@@ -10276,7 +10176,7 @@
       <c r="D18" s="112" t="s">
         <v>139</v>
       </c>
-      <c r="E18" s="255"/>
+      <c r="E18" s="260"/>
     </row>
     <row r="19" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="77" t="s">
@@ -10292,7 +10192,7 @@
       <c r="D19" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="E19" s="255"/>
+      <c r="E19" s="260"/>
     </row>
     <row r="20" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="77" t="s">
@@ -10307,7 +10207,7 @@
       <c r="D20" s="112" t="s">
         <v>147</v>
       </c>
-      <c r="E20" s="255"/>
+      <c r="E20" s="260"/>
     </row>
     <row r="21" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="106" t="s">
@@ -10322,7 +10222,7 @@
       <c r="D21" s="113" t="s">
         <v>148</v>
       </c>
-      <c r="E21" s="255"/>
+      <c r="E21" s="260"/>
     </row>
     <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="77" t="s">
@@ -10337,7 +10237,7 @@
       <c r="D22" s="114" t="s">
         <v>157</v>
       </c>
-      <c r="E22" s="255"/>
+      <c r="E22" s="260"/>
     </row>
     <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="77" t="s">
@@ -10352,7 +10252,7 @@
       <c r="D23" s="114" t="s">
         <v>158</v>
       </c>
-      <c r="E23" s="255"/>
+      <c r="E23" s="260"/>
     </row>
     <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="77" t="s">
@@ -10367,7 +10267,7 @@
       <c r="D24" s="114" t="s">
         <v>159</v>
       </c>
-      <c r="E24" s="255"/>
+      <c r="E24" s="260"/>
     </row>
     <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="77" t="s">
@@ -10382,7 +10282,7 @@
       <c r="D25" s="114" t="s">
         <v>160</v>
       </c>
-      <c r="E25" s="255"/>
+      <c r="E25" s="260"/>
     </row>
     <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="77" t="s">
@@ -10397,7 +10297,7 @@
       <c r="D26" s="114" t="s">
         <v>165</v>
       </c>
-      <c r="E26" s="255"/>
+      <c r="E26" s="260"/>
     </row>
     <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="77" t="s">
@@ -10413,7 +10313,7 @@
       <c r="D27" s="114" t="s">
         <v>162</v>
       </c>
-      <c r="E27" s="255"/>
+      <c r="E27" s="260"/>
     </row>
     <row r="28" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="89" t="s">
@@ -10428,7 +10328,7 @@
       <c r="D28" s="115" t="s">
         <v>163</v>
       </c>
-      <c r="E28" s="256"/>
+      <c r="E28" s="261"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10788,7 +10688,7 @@
       <c r="D1" s="108" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="257" t="s">
+      <c r="E1" s="262" t="s">
         <v>178</v>
       </c>
     </row>
@@ -10806,7 +10706,7 @@
       <c r="D2" s="108" t="s">
         <v>177</v>
       </c>
-      <c r="E2" s="257"/>
+      <c r="E2" s="262"/>
     </row>
     <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="77" t="s">
@@ -10822,7 +10722,7 @@
       <c r="D3" s="108" t="s">
         <v>177</v>
       </c>
-      <c r="E3" s="257"/>
+      <c r="E3" s="262"/>
     </row>
     <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="77" t="s">
@@ -10838,7 +10738,7 @@
       <c r="D4" s="108" t="s">
         <v>177</v>
       </c>
-      <c r="E4" s="257"/>
+      <c r="E4" s="262"/>
     </row>
     <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="77" t="s">
@@ -10854,7 +10754,7 @@
       <c r="D5" s="108" t="s">
         <v>177</v>
       </c>
-      <c r="E5" s="257"/>
+      <c r="E5" s="262"/>
     </row>
     <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="77" t="s">
@@ -10870,7 +10770,7 @@
       <c r="D6" s="108" t="s">
         <v>177</v>
       </c>
-      <c r="E6" s="257"/>
+      <c r="E6" s="262"/>
     </row>
     <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="89" t="s">
@@ -10886,7 +10786,7 @@
       <c r="D7" s="109" t="s">
         <v>177</v>
       </c>
-      <c r="E7" s="258"/>
+      <c r="E7" s="263"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11459,7 +11359,7 @@
       <c r="D1" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="259" t="s">
+      <c r="E1" s="264" t="s">
         <v>222</v>
       </c>
       <c r="F1" s="69"/>
@@ -11482,7 +11382,7 @@
       <c r="D2" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="259"/>
+      <c r="E2" s="264"/>
       <c r="F2" s="69"/>
       <c r="G2" s="69"/>
       <c r="H2" s="69"/>
@@ -11503,7 +11403,7 @@
       <c r="D3" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="259"/>
+      <c r="E3" s="264"/>
       <c r="F3" s="69"/>
       <c r="G3" s="69"/>
       <c r="H3" s="69"/>
@@ -11524,7 +11424,7 @@
       <c r="D4" s="141" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="259"/>
+      <c r="E4" s="264"/>
       <c r="F4" s="69"/>
       <c r="G4" s="69"/>
       <c r="H4" s="69"/>
@@ -11544,7 +11444,7 @@
       <c r="D5" s="141" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="259"/>
+      <c r="E5" s="264"/>
       <c r="F5" s="94"/>
       <c r="G5" s="69"/>
       <c r="H5" s="69"/>
@@ -11565,7 +11465,7 @@
       <c r="D6" s="141" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="259"/>
+      <c r="E6" s="264"/>
       <c r="F6" s="94"/>
       <c r="G6" s="69"/>
       <c r="H6" s="69"/>
@@ -11586,7 +11486,7 @@
       <c r="D7" s="141" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="259"/>
+      <c r="E7" s="264"/>
       <c r="F7" s="69"/>
       <c r="G7" s="69"/>
       <c r="H7" s="69"/>

--- a/planning/Excels/Templates/suspension_template.xlsx
+++ b/planning/Excels/Templates/suspension_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2424069M\Documents\GitHub\IbM\planning\Excels\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9C330C-3BEB-4470-B55D-F2EBB5CC1C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F283FE-19D0-4574-9574-6C0D65F03CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="808" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
